--- a/data/trans_orig/P13A_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C290BB-2E86-4166-A14A-EC6FA9E30507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF10DC1A-71E6-4D9A-AAC5-74833850CA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6BE5C30-FD33-4E17-ABF4-C39A1F35E8AC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BAF0F7BD-C601-421F-8A6B-5B0356A0EC66}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,13 +104,13 @@
     <t>93,65%</t>
   </si>
   <si>
-    <t>76,88%</t>
+    <t>77,93%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>82,9%</t>
+    <t>80,93%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -119,13 +119,13 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>23,12%</t>
+    <t>22,07%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>17,1%</t>
+    <t>19,07%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -137,13 +137,13 @@
     <t>97,58%</t>
   </si>
   <si>
-    <t>90,57%</t>
+    <t>90,89%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>93,37%</t>
+    <t>92,96%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -152,13 +152,13 @@
     <t>2,42%</t>
   </si>
   <si>
-    <t>9,43%</t>
+    <t>9,11%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>6,63%</t>
+    <t>7,04%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -167,25 +167,25 @@
     <t>97,67%</t>
   </si>
   <si>
-    <t>88,91%</t>
+    <t>90,67%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>91,51%</t>
+    <t>91,84%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>11,09%</t>
+    <t>9,33%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>8,49%</t>
+    <t>8,16%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -197,19 +197,19 @@
     <t>90,13%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>91,12%</t>
   </si>
   <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -218,19 +218,19 @@
     <t>9,87%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -239,7 +239,10 @@
     <t>94,54%</t>
   </si>
   <si>
-    <t>88,46%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -248,22 +251,19 @@
     <t>90,23%</t>
   </si>
   <si>
-    <t>97,79%</t>
-  </si>
-  <si>
     <t>4,44%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>11,54%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
   </si>
   <si>
     <t>9,77%</t>
@@ -681,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67A85F6-0945-4840-B8E5-20B5CEB46B01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08C9F99-7528-4ADA-9510-589C526E1134}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1595,7 +1595,7 @@
         <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -1604,13 +1604,13 @@
         <v>197921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,10 +1643,10 @@
         <v>72</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -1655,10 +1655,10 @@
         <v>9180</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>76</v>

--- a/data/trans_orig/P13A_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF10DC1A-71E6-4D9A-AAC5-74833850CA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2EEBF3-8437-4DB3-AD69-80E4A345AF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BAF0F7BD-C601-421F-8A6B-5B0356A0EC66}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{423F2A0A-D07A-4773-95DA-6F4BC987116E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -95,7 +95,7 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -128,7 +128,7 @@
     <t>19,07%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -161,7 +161,7 @@
     <t>7,04%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>97,67%</t>
@@ -681,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08C9F99-7528-4ADA-9510-589C526E1134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9535458B-9112-44D4-A8A2-78136303D4B6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2EEBF3-8437-4DB3-AD69-80E4A345AF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEFC7C7B-8366-4752-8866-3F234B268BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{423F2A0A-D07A-4773-95DA-6F4BC987116E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{56347526-66B4-4AD9-8348-BA2273CF12BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,13 +104,13 @@
     <t>93,65%</t>
   </si>
   <si>
-    <t>77,93%</t>
+    <t>76,88%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>80,93%</t>
+    <t>82,9%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -119,13 +119,13 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>22,07%</t>
+    <t>23,12%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>19,07%</t>
+    <t>17,1%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -137,13 +137,13 @@
     <t>97,58%</t>
   </si>
   <si>
-    <t>90,89%</t>
+    <t>90,57%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>92,96%</t>
+    <t>93,37%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -152,13 +152,13 @@
     <t>2,42%</t>
   </si>
   <si>
-    <t>9,11%</t>
+    <t>9,43%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>7,04%</t>
+    <t>6,63%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -167,25 +167,25 @@
     <t>97,67%</t>
   </si>
   <si>
-    <t>90,67%</t>
+    <t>88,91%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>91,84%</t>
+    <t>91,51%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>9,33%</t>
+    <t>11,09%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>8,16%</t>
+    <t>8,49%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -197,19 +197,19 @@
     <t>90,13%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>91,12%</t>
   </si>
   <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -218,19 +218,19 @@
     <t>9,87%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -239,10 +239,7 @@
     <t>94,54%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>88,46%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -251,19 +248,22 @@
     <t>90,23%</t>
   </si>
   <si>
+    <t>97,79%</t>
+  </si>
+  <si>
     <t>4,44%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>11,54%</t>
   </si>
   <si>
     <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>9,77%</t>
@@ -681,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9535458B-9112-44D4-A8A2-78136303D4B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2987132B-CACC-40BF-B3A7-B65D670C4B68}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1595,7 +1595,7 @@
         <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -1604,13 +1604,13 @@
         <v>197921</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,10 +1643,10 @@
         <v>72</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -1655,10 +1655,10 @@
         <v>9180</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>76</v>

--- a/data/trans_orig/P13A_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEFC7C7B-8366-4752-8866-3F234B268BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7016DA-EA58-4A7C-98B0-20EBBD183F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{56347526-66B4-4AD9-8348-BA2273CF12BF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{64979CC5-12AB-4463-8908-8967E6ACB172}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
   <si>
     <t>Población con cefaleas crónicas (15 días o más al mes durante más de 3 meses) en 2023 (Tasa respuesta: 3,1%)</t>
   </si>
@@ -65,24 +65,33 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>69,43%</t>
+    <t>82,92%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -92,40 +101,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -134,58 +122,58 @@
     <t>87,39%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -194,79 +182,85 @@
     <t>79,25%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -681,8 +675,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2987132B-CACC-40BF-B3A7-B65D670C4B68}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25377C42-7EA9-47F2-9F84-E89538E1EFBF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -799,96 +793,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8271</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>39</v>
+      </c>
+      <c r="I4" s="7">
+        <v>23869</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>49</v>
+      </c>
+      <c r="N4" s="7">
+        <v>32140</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2630</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>5</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2630</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1585</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1585</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -897,106 +895,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8271</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="I6" s="7">
-        <v>2630</v>
+        <v>25454</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="N6" s="7">
-        <v>2630</v>
+        <v>33725</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>8506</v>
+        <v>14768</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7">
-        <v>23530</v>
+        <v>44141</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="N7" s="7">
-        <v>32037</v>
+        <v>58909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1005,43 +1005,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1595</v>
+        <v>1046</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1595</v>
+        <v>1046</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1050,108 +1050,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7">
-        <v>8506</v>
+        <v>14768</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7">
-        <v>25125</v>
+        <v>45187</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="N9" s="7">
-        <v>33632</v>
+        <v>59955</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>15242</v>
+        <v>8290</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>47845</v>
+        <v>31025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="N10" s="7">
-        <v>63088</v>
+        <v>39315</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1160,43 +1160,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1188</v>
+        <v>747</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1188</v>
+        <v>747</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1205,108 +1205,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>15242</v>
+        <v>8290</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>49033</v>
+        <v>31772</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="N12" s="7">
-        <v>64276</v>
+        <v>40062</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>8765</v>
+        <v>6064</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
+        <v>60</v>
+      </c>
+      <c r="I13" s="7">
+        <v>44459</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>68</v>
+      </c>
+      <c r="N13" s="7">
+        <v>50523</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="7">
-        <v>34095</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="7">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7">
-        <v>42861</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1315,43 +1315,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>814</v>
+        <v>4962</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>814</v>
+        <v>4962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,108 +1360,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>8765</v>
+        <v>6064</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I15" s="7">
-        <v>34909</v>
+        <v>49421</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="N15" s="7">
-        <v>43675</v>
+        <v>55485</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>6341</v>
+        <v>37393</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="I16" s="7">
-        <v>50965</v>
+        <v>143494</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M16" s="7">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="N16" s="7">
-        <v>57306</v>
+        <v>180887</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1470,43 +1470,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>5582</v>
+        <v>8340</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>5582</v>
+        <v>8340</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,217 +1515,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7">
-        <v>6341</v>
+        <v>37393</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="I18" s="7">
-        <v>56547</v>
+        <v>151834</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="N18" s="7">
-        <v>62888</v>
+        <v>189227</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>42</v>
-      </c>
-      <c r="D19" s="7">
-        <v>38855</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="7">
-        <v>219</v>
-      </c>
-      <c r="I19" s="7">
-        <v>159066</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="7">
-        <v>261</v>
-      </c>
-      <c r="N19" s="7">
-        <v>197921</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
-        <v>9180</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" s="7">
-        <v>10</v>
-      </c>
-      <c r="N20" s="7">
-        <v>9180</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="Q20" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>42</v>
-      </c>
-      <c r="D21" s="7">
-        <v>38855</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="7">
-        <v>229</v>
-      </c>
-      <c r="I21" s="7">
-        <v>168246</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="7">
-        <v>271</v>
-      </c>
-      <c r="N21" s="7">
-        <v>207101</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
